--- a/Software Deliveries Log/Delivery History.xlsx
+++ b/Software Deliveries Log/Delivery History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital_Elevator\Software Deliveries Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D231C83-C6CD-4B32-A1AF-05A650A79734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1239C71-8E85-4EEC-96EE-424B9DEA3AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{44ADEEAE-812D-4892-97CC-6D6F2881F008}"/>
   </bookViews>
@@ -119,25 +119,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -155,6 +155,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB34BF1F-BB8A-4F1D-828E-7C89FE40DDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="1085851" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +515,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,126 +527,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="A3:B3"/>
@@ -598,12 +660,9 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>